--- a/build/ensino/2022/08/segundo-semestre-de-2022/mes-11-dia-20-ava-matc65.xlsx
+++ b/build/ensino/2022/08/segundo-semestre-de-2022/mes-11-dia-20-ava-matc65.xlsx
@@ -449,16 +449,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -513,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -574,7 +574,7 @@
         <v>219119343</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>220215677</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -766,19 +766,19 @@
         <v>220216104</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -836,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -929,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -961,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1037,16 +1037,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1089,28 +1089,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1118,13 +1118,13 @@
         <v>216120656</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1150,7 +1150,7 @@
         <v>220215670</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1168,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1188,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1246,7 +1246,7 @@
         <v>219216014</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1310,7 +1310,7 @@
         <v>219216568</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1374,31 +1374,31 @@
         <v>222215880</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1453,16 +1453,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1758,19 +1758,19 @@
         <v>221117685</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1857,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
